--- a/2018_gains_edited.xlsx
+++ b/2018_gains_edited.xlsx
@@ -125,10 +125,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * -??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * -#,##0.0_ ;_ * -??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="₪ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="₪ #,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -152,12 +152,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="David"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,18 +193,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,156 +514,155 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="13.7109375" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>24261604.27</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2298637.059626903</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3">
         <v>21962967.2103731</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>21962967.2103731</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>727.0810489999998</v>
       </c>
       <c r="D14" s="6">
@@ -669,48 +671,48 @@
       <c r="E14" s="6">
         <v>43155</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>4100.024370185452</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7">
         <v>2981050.020000001</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="7">
         <v>0</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="7">
         <v>2981050.020000001</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="7">
         <v>2981050.020000001</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="7">
         <v>2981050.020000001</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>0.02</v>
       </c>
       <c r="D15" s="6">
@@ -719,48 +721,48 @@
       <c r="E15" s="6">
         <v>43130</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>35000</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="7">
         <v>33569481.5609147</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="7">
         <v>700</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="7">
         <v>0.08</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="7">
         <v>0.001473600000000005</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="7">
         <v>0.08147360000000001</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="7">
         <v>699.92</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="7">
         <v>699.9185264</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="7">
         <v>699.9185264</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>0.048</v>
       </c>
       <c r="D16" s="6">
@@ -769,48 +771,48 @@
       <c r="E16" s="6">
         <v>43137</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>3.958333333333333</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>27083.33333333333</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="7">
         <v>1300</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="7">
         <v>0.19</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="7">
         <v>0.003693599999999991</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="7">
         <v>0.1936936</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="7">
         <v>1299.81</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="7">
         <v>1299.8063064</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="7">
         <v>1299.8063064</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>0.0348</v>
       </c>
       <c r="D17" s="6">
@@ -819,48 +821,48 @@
       <c r="E17" s="6">
         <v>43150</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>4.022988505747128</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>34482.75862068966</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="7">
         <v>1200</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="7">
         <v>0.14</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="7">
         <v>0.002721599999999991</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="7">
         <v>0.1427216</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="7">
         <v>1199.86</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="7">
         <v>1199.8572784</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="7">
         <v>1199.8572784</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>0.03</v>
       </c>
       <c r="D18" s="6">
@@ -869,48 +871,48 @@
       <c r="E18" s="6">
         <v>43154</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>4</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>35000</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="7">
         <v>1050</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="7">
         <v>0.12</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="7">
         <v>0.002332799999999982</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="7">
         <v>0.1223328</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="7">
         <v>1049.88</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="7">
         <v>1049.8776672</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="7">
         <v>1049.8776672</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>60</v>
       </c>
       <c r="D19" s="6">
@@ -919,48 +921,48 @@
       <c r="E19" s="6">
         <v>43157</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>10.53</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>34860.09995333333</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="7">
         <v>2091605.9972</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="7">
         <v>631.8000000000001</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="7">
         <v>12.2821919999999</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="7">
         <v>644.082192</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="7">
         <v>2090974.1972</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="7">
         <v>2090961.915008</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="7">
         <v>2090961.915008</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>17.3929665</v>
       </c>
       <c r="D20" s="6">
@@ -969,48 +971,48 @@
       <c r="E20" s="6">
         <v>43157</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>90571.52205749376</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>34860.10003526425</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
         <v>33535878.4762692</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="7">
         <v>606320.5521</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="7">
         <v>1575307.449</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="7">
         <v>3150.614897999913</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="7">
         <v>1578458.063898</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="7">
         <v>-968986.8969000001</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="7">
         <v>-972137.511798</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="7">
         <v>-968986.8969000001</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>8</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>27.08077472</v>
       </c>
       <c r="D21" s="6">
@@ -1019,48 +1021,48 @@
       <c r="E21" s="6">
         <v>43157</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>9957.180080260274</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>34860.10003261827</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="7">
         <v>33703893.899497</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="7">
         <v>944038.5157</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="7">
         <v>269648.1506</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="7">
         <v>0</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="7">
         <v>269648.1506</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="7">
         <v>674390.3651000001</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="7">
         <v>674390.3651000001</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="7">
         <v>674390.3651000001</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>9</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>55.52625877</v>
       </c>
       <c r="D22" s="6">
@@ -1069,48 +1071,48 @@
       <c r="E22" s="6">
         <v>43157</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>6628.510693013867</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>34860.10002975031</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="7">
         <v>33703893.899497</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="7">
         <v>1935650.935</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="7">
         <v>368056.4</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="7">
         <v>0</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="7">
         <v>368056.4</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="7">
         <v>1567594.535</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="7">
         <v>1567594.535</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="7">
         <v>1567594.535</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>10</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>133</v>
       </c>
       <c r="D23" s="6">
@@ -1119,48 +1121,48 @@
       <c r="E23" s="6">
         <v>43225</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>3.948571428571428</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>35394.55759398495</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="7">
         <v>34006321.661307</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="7">
         <v>4707476.159999998</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="7">
         <v>525.16</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="7">
         <v>16.6318172</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="7">
         <v>541.7918172</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="7">
         <v>4706950.999999998</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="7">
         <v>4706934.368182798</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="7">
         <v>4706934.368182798</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>11</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>0.05</v>
       </c>
       <c r="D24" s="6">
@@ -1169,48 +1171,48 @@
       <c r="E24" s="6">
         <v>43376</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>4</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>32340</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <v>34207940.1691804</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="7">
         <v>1617</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="7">
         <v>0.2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="7">
         <v>0.007558000000000009</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="7">
         <v>0.207558</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="7">
         <v>1616.8</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="7">
         <v>1616.792442</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="7">
         <v>1616.792442</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>0.051</v>
       </c>
       <c r="D25" s="6">
@@ -1219,48 +1221,48 @@
       <c r="E25" s="6">
         <v>43393</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>3.921568627450981</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>23529.41176470588</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="7">
         <v>34207940.1691804</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="7">
         <v>1200</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="7">
         <v>0.2</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="7">
         <v>0.007558000000000009</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="7">
         <v>0.207558</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="7">
         <v>1199.8</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="7">
         <v>1199.792442</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="7">
         <v>1199.792442</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>0.06</v>
       </c>
       <c r="D26" s="6">
@@ -1269,48 +1271,48 @@
       <c r="E26" s="6">
         <v>43426</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>4</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>16893.66666666667</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="7">
         <v>32962312.4895247</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="7">
         <v>34107130.9152437</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="7">
         <v>1013.62</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="7">
         <v>0.24</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="7">
         <v>0.008335199999999987</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="7">
         <v>0.2483352</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="7">
         <v>1013.38</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="7">
         <v>1013.3716648</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="7">
         <v>1013.3716648</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>14</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>96.30230999999999</v>
       </c>
       <c r="D27" s="6">
@@ -1319,48 +1321,48 @@
       <c r="E27" s="6">
         <v>43101</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>8.98721951737191</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>2907.572622089751</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="7">
         <v>33705015.1348795</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="7">
         <v>33569481.5609147</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="7">
         <v>280005.96</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="7">
         <v>865.49</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="7">
         <v>0</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="7">
         <v>865.49</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="7">
         <v>279140.47</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="7">
         <v>279140.47</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="7">
         <v>279140.47</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>15</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>0.007941999999999999</v>
       </c>
       <c r="D28" s="6">
@@ -1369,48 +1371,48 @@
       <c r="E28" s="6">
         <v>43103</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>8.813900780659784</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>2995.467136741375</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="7">
         <v>33705015.1348795</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="7">
         <v>33569481.5609147</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="7">
         <v>23.79</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="7">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="7">
         <v>0</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="7">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="7">
         <v>23.72</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="7">
         <v>23.72</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="7">
         <v>23.72</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>16</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>3000.000193479998</v>
       </c>
       <c r="D29" s="6">
@@ -1419,48 +1421,48 @@
       <c r="E29" s="6">
         <v>43155</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>8.987156087055022</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>2877.776097735961</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="7">
         <v>33705015.1348795</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="7">
         <v>8633328.849999998</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="7">
         <v>26961.47</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="7">
         <v>0</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="7">
         <v>26961.47</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="7">
         <v>8606367.379999997</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="7">
         <v>8606367.379999997</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="7">
         <v>8606367.379999997</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>17</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>300.01</v>
       </c>
       <c r="D30" s="6">
@@ -1469,48 +1471,48 @@
       <c r="E30" s="6">
         <v>43215</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>8.987200426652445</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>2443.623012566248</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="7">
         <v>33705015.1348795</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="7">
         <v>33838306.2380792</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="7">
         <v>733111.34</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="7">
         <v>2696.25</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="7">
         <v>10.6501874999999</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="7">
         <v>2706.9001875</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="7">
         <v>730415.09</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="7">
         <v>730404.4398124999</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="7">
         <v>730404.4398124999</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>18</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>0.225</v>
       </c>
       <c r="D31" s="6">
@@ -1519,48 +1521,48 @@
       <c r="E31" s="6">
         <v>43372</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>8.977777777777778</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>814.3555555555555</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="7">
         <v>33705015.1348795</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="7">
         <v>34107130.9152437</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="7">
         <v>183.23</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="7">
         <v>2.02</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="7">
         <v>0.02409859999999986</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="7">
         <v>2.0440986</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="7">
         <v>181.21</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="7">
         <v>181.1859014</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="7">
         <v>181.1859014</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>19</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>0.225</v>
       </c>
       <c r="D32" s="6">
@@ -1569,48 +1571,48 @@
       <c r="E32" s="6">
         <v>43464</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>8.977777777777778</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>522.7555555555556</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="7">
         <v>33705015.1348795</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="7">
         <v>34006321.7</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="7">
         <v>117.62</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="7">
         <v>2.02</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="7">
         <v>0.01805879999999993</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="7">
         <v>2.0380588</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="7">
         <v>115.6</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="7">
         <v>115.5819412</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="7">
         <v>115.5819412</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>20</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>499999.9964059999</v>
       </c>
       <c r="D33" s="6">
@@ -1619,48 +1621,48 @@
       <c r="E33" s="6">
         <v>43103</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>0.05390000038743321</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>1.247283548965474</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="7">
         <v>33703893.899497</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="7">
         <v>33569481.5609147</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="7">
         <v>623641.7699999999</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="7">
         <v>26950</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="7">
         <v>26950</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="7">
         <v>596691.7699999999</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="7">
         <v>596691.7699999999</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="7">
         <v>596691.7699999999</v>
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>21</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>499999.996851</v>
       </c>
       <c r="D34" s="6">
@@ -1669,42 +1671,42 @@
       <c r="E34" s="6">
         <v>43154</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>0.05389994033946183</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>1.433937829030941</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="7">
         <v>33703893.899497</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="7">
         <v>716968.9100000001</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="7">
         <v>26949.97</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="7">
         <v>26949.97</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="7">
         <v>690018.9400000002</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="7">
         <v>690018.9400000002</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="7">
         <v>690018.9400000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -1712,6 +1714,11 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0.05" footer="0.05"/>
   <pageSetup paperSize="6" orientation="landscape"/>

--- a/2018_gains_edited.xlsx
+++ b/2018_gains_edited.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$117</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="45">
   <si>
     <t>a</t>
   </si>
@@ -61,16 +61,43 @@
     <t>סכום</t>
   </si>
   <si>
-    <t>BCH</t>
+    <t>ADA</t>
   </si>
   <si>
     <t>BTC</t>
   </si>
   <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>MAID</t>
+    <t>ICX</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>STEEM</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>XVG</t>
+  </si>
+  <si>
+    <t>Binance</t>
   </si>
   <si>
     <t>עסקה</t>
@@ -119,6 +146,12 @@
   </si>
   <si>
     <t>רווח-הפסד לצורכי מס</t>
+  </si>
+  <si>
+    <t>בורסת קניה</t>
+  </si>
+  <si>
+    <t>בורסת מכירה</t>
   </si>
 </sst>
 </file>
@@ -507,7 +540,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:R117"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +550,7 @@
     <col min="8" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -532,7 +565,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -543,11 +576,11 @@
         <v>7</v>
       </c>
       <c r="F3" s="3">
-        <v>24261604.27</v>
+        <v>315097.2</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -558,11 +591,11 @@
         <v>8</v>
       </c>
       <c r="F4" s="3">
-        <v>2298637.059626903</v>
+        <v>322468.8968474</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -571,11 +604,11 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
-        <v>21962967.2103731</v>
+        <v>-7371.696847399998</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -590,7 +623,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -601,61 +634,67 @@
         <v>10</v>
       </c>
       <c r="F7" s="3">
-        <v>21962967.2103731</v>
+        <v>-7371.696847399998</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -663,19 +702,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>727.0810489999998</v>
+        <v>1298.4</v>
       </c>
       <c r="D14" s="6">
-        <v>43155</v>
+        <v>43133</v>
       </c>
       <c r="E14" s="6">
-        <v>43155</v>
+        <v>43149</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>1.153789279112754</v>
       </c>
       <c r="G14" s="5">
-        <v>4100.024370185452</v>
+        <v>1.320063154651879</v>
       </c>
       <c r="H14" s="7">
         <v>33603084.6455603</v>
@@ -684,78 +723,90 @@
         <v>33603084.6455603</v>
       </c>
       <c r="J14" s="7">
-        <v>2981050.020000001</v>
+        <v>1713.97</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>1498.08</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1498.08</v>
       </c>
       <c r="N14" s="7">
-        <v>2981050.020000001</v>
+        <v>215.8899999999999</v>
       </c>
       <c r="O14" s="7">
-        <v>2981050.020000001</v>
+        <v>215.8899999999999</v>
       </c>
       <c r="P14" s="7">
-        <v>2981050.020000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>215.8899999999999</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
-        <v>0.02</v>
+        <v>399.6</v>
       </c>
       <c r="D15" s="6">
-        <v>40839</v>
+        <v>43126</v>
       </c>
       <c r="E15" s="6">
-        <v>43130</v>
+        <v>43149</v>
       </c>
       <c r="F15" s="5">
-        <v>4</v>
+        <v>2.099024024024024</v>
       </c>
       <c r="G15" s="5">
-        <v>35000</v>
+        <v>1.32007007007007</v>
       </c>
       <c r="H15" s="7">
-        <v>32962312.4895247</v>
+        <v>33569481.5609147</v>
       </c>
       <c r="I15" s="7">
-        <v>33569481.5609147</v>
+        <v>33603084.6455603</v>
       </c>
       <c r="J15" s="7">
-        <v>700</v>
+        <v>527.5</v>
       </c>
       <c r="K15" s="7">
-        <v>0.08</v>
+        <v>838.77</v>
       </c>
       <c r="L15" s="7">
-        <v>0.001473600000000005</v>
+        <v>0.8387699999999541</v>
       </c>
       <c r="M15" s="7">
-        <v>0.08147360000000001</v>
+        <v>839.6087699999999</v>
       </c>
       <c r="N15" s="7">
-        <v>699.92</v>
+        <v>-311.27</v>
       </c>
       <c r="O15" s="7">
-        <v>699.9185264</v>
+        <v>-312.1087699999999</v>
       </c>
       <c r="P15" s="7">
-        <v>699.9185264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>-311.27</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -763,946 +814,5708 @@
         <v>15</v>
       </c>
       <c r="C16" s="5">
-        <v>0.048</v>
+        <v>0.14311574</v>
       </c>
       <c r="D16" s="6">
-        <v>40839</v>
+        <v>43286</v>
       </c>
       <c r="E16" s="6">
-        <v>43137</v>
+        <v>43286</v>
       </c>
       <c r="F16" s="5">
-        <v>3.958333333333333</v>
+        <v>33816.89533240718</v>
       </c>
       <c r="G16" s="5">
-        <v>27083.33333333333</v>
+        <v>33842.81840697607</v>
       </c>
       <c r="H16" s="7">
-        <v>32962312.4895247</v>
+        <v>34039924.7459526</v>
       </c>
       <c r="I16" s="7">
-        <v>33603084.6455603</v>
+        <v>34039924.7459526</v>
       </c>
       <c r="J16" s="7">
-        <v>1300</v>
+        <v>4843.440000000001</v>
       </c>
       <c r="K16" s="7">
-        <v>0.19</v>
+        <v>4839.73</v>
       </c>
       <c r="L16" s="7">
-        <v>0.003693599999999991</v>
+        <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>0.1936936</v>
+        <v>4839.73</v>
       </c>
       <c r="N16" s="7">
-        <v>1299.81</v>
+        <v>3.710000000000946</v>
       </c>
       <c r="O16" s="7">
-        <v>1299.8063064</v>
+        <v>3.710000000000946</v>
       </c>
       <c r="P16" s="7">
-        <v>1299.8063064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>3.710000000000946</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4">
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5">
-        <v>0.0348</v>
+        <v>4.82</v>
       </c>
       <c r="D17" s="6">
-        <v>40839</v>
+        <v>43219</v>
       </c>
       <c r="E17" s="6">
-        <v>43150</v>
+        <v>43195</v>
       </c>
       <c r="F17" s="5">
-        <v>4.022988505747128</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5">
-        <v>34482.75862068966</v>
+        <v>61.67842323651453</v>
       </c>
       <c r="H17" s="7">
-        <v>32962312.4895247</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I17" s="7">
-        <v>33603084.6455603</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="J17" s="7">
-        <v>1200</v>
+        <v>297.29</v>
       </c>
       <c r="K17" s="7">
-        <v>0.14</v>
+        <v>356.68</v>
       </c>
       <c r="L17" s="7">
-        <v>0.002721599999999991</v>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>0.1427216</v>
+        <v>356.68</v>
       </c>
       <c r="N17" s="7">
-        <v>1199.86</v>
+        <v>-59.38999999999999</v>
       </c>
       <c r="O17" s="7">
-        <v>1199.8572784</v>
+        <v>-59.38999999999999</v>
       </c>
       <c r="P17" s="7">
-        <v>1199.8572784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>-59.38999999999999</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="4">
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
-        <v>0.03</v>
+        <v>10.84</v>
       </c>
       <c r="D18" s="6">
-        <v>40839</v>
+        <v>43219</v>
       </c>
       <c r="E18" s="6">
-        <v>43154</v>
+        <v>43256</v>
       </c>
       <c r="F18" s="5">
-        <v>4</v>
+        <v>74.00092250922509</v>
       </c>
       <c r="G18" s="5">
-        <v>35000</v>
+        <v>61.03321033210332</v>
       </c>
       <c r="H18" s="7">
-        <v>32962312.4895247</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I18" s="7">
-        <v>33603084.6455603</v>
+        <v>34039924.7459526</v>
       </c>
       <c r="J18" s="7">
-        <v>1050</v>
+        <v>661.6</v>
       </c>
       <c r="K18" s="7">
-        <v>0.12</v>
+        <v>802.17</v>
       </c>
       <c r="L18" s="7">
-        <v>0.002332799999999982</v>
+        <v>4.780933199999936</v>
       </c>
       <c r="M18" s="7">
-        <v>0.1223328</v>
+        <v>806.9509331999999</v>
       </c>
       <c r="N18" s="7">
-        <v>1049.88</v>
+        <v>-140.5699999999999</v>
       </c>
       <c r="O18" s="7">
-        <v>1049.8776672</v>
+        <v>-145.3509331999999</v>
       </c>
       <c r="P18" s="7">
-        <v>1049.8776672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>-140.5699999999999</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5">
-        <v>60</v>
+        <v>18.55944</v>
       </c>
       <c r="D19" s="6">
-        <v>40839</v>
+        <v>43286</v>
       </c>
       <c r="E19" s="6">
-        <v>43157</v>
+        <v>43235</v>
       </c>
       <c r="F19" s="5">
-        <v>10.53</v>
+        <v>65.20940286991419</v>
       </c>
       <c r="G19" s="5">
-        <v>34860.09995333333</v>
+        <v>48.74931571211201</v>
       </c>
       <c r="H19" s="7">
-        <v>32962312.4895247</v>
+        <v>34039924.7459526</v>
       </c>
       <c r="I19" s="7">
-        <v>33603084.6455603</v>
+        <v>34006321.661307</v>
       </c>
       <c r="J19" s="7">
-        <v>2091605.9972</v>
+        <v>904.76</v>
       </c>
       <c r="K19" s="7">
-        <v>631.8000000000001</v>
+        <v>1210.25</v>
       </c>
       <c r="L19" s="7">
-        <v>12.2821919999999</v>
+        <v>0</v>
       </c>
       <c r="M19" s="7">
-        <v>644.082192</v>
+        <v>1210.25</v>
       </c>
       <c r="N19" s="7">
-        <v>2090974.1972</v>
+        <v>-305.49</v>
       </c>
       <c r="O19" s="7">
-        <v>2090961.915008</v>
+        <v>-305.49</v>
       </c>
       <c r="P19" s="7">
-        <v>2090961.915008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>-305.49</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5">
-        <v>17.3929665</v>
+        <v>3.62056</v>
       </c>
       <c r="D20" s="6">
-        <v>42789</v>
+        <v>43219</v>
       </c>
       <c r="E20" s="6">
-        <v>43157</v>
+        <v>43235</v>
       </c>
       <c r="F20" s="5">
-        <v>90571.52205749376</v>
+        <v>73.99960227147183</v>
       </c>
       <c r="G20" s="5">
-        <v>34860.10003526425</v>
+        <v>48.74936473915638</v>
       </c>
       <c r="H20" s="7">
-        <v>33535878.4762692</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I20" s="7">
-        <v>33603084.6455603</v>
+        <v>34006321.661307</v>
       </c>
       <c r="J20" s="7">
-        <v>606320.5521</v>
+        <v>176.5</v>
       </c>
       <c r="K20" s="7">
-        <v>1575307.449</v>
+        <v>267.92</v>
       </c>
       <c r="L20" s="7">
-        <v>3150.614897999913</v>
+        <v>1.331562399999996</v>
       </c>
       <c r="M20" s="7">
-        <v>1578458.063898</v>
+        <v>269.2515624</v>
       </c>
       <c r="N20" s="7">
-        <v>-968986.8969000001</v>
+        <v>-91.42000000000002</v>
       </c>
       <c r="O20" s="7">
-        <v>-972137.511798</v>
+        <v>-92.75156240000001</v>
       </c>
       <c r="P20" s="7">
-        <v>-968986.8969000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>-91.42000000000002</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5">
-        <v>27.08077472</v>
+        <v>0.00198</v>
       </c>
       <c r="D21" s="6">
-        <v>42984</v>
+        <v>43286</v>
       </c>
       <c r="E21" s="6">
-        <v>43157</v>
+        <v>43237</v>
       </c>
       <c r="F21" s="5">
-        <v>9957.180080260274</v>
+        <v>65.65656565656566</v>
       </c>
       <c r="G21" s="5">
-        <v>34860.10003261827</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="H21" s="7">
-        <v>33703893.899497</v>
+        <v>34039924.7459526</v>
       </c>
       <c r="I21" s="7">
-        <v>33603084.6455603</v>
+        <v>34006321.661307</v>
       </c>
       <c r="J21" s="7">
-        <v>944038.5157</v>
+        <v>0.09</v>
       </c>
       <c r="K21" s="7">
-        <v>269648.1506</v>
+        <v>0.13</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
       </c>
       <c r="M21" s="7">
-        <v>269648.1506</v>
+        <v>0.13</v>
       </c>
       <c r="N21" s="7">
-        <v>674390.3651000001</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="O21" s="7">
-        <v>674390.3651000001</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="P21" s="7">
-        <v>674390.3651000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="4">
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5">
-        <v>55.52625877</v>
+        <v>64.37801999999999</v>
       </c>
       <c r="D22" s="6">
-        <v>43002</v>
+        <v>43236</v>
       </c>
       <c r="E22" s="6">
-        <v>43157</v>
+        <v>43237</v>
       </c>
       <c r="F22" s="5">
-        <v>6628.510693013867</v>
+        <v>44.27147650704386</v>
       </c>
       <c r="G22" s="5">
-        <v>34860.10002975031</v>
+        <v>46.90545002782006</v>
       </c>
       <c r="H22" s="7">
-        <v>33703893.899497</v>
+        <v>34006321.661307</v>
       </c>
       <c r="I22" s="7">
-        <v>33603084.6455603</v>
+        <v>34006321.661307</v>
       </c>
       <c r="J22" s="7">
-        <v>1935650.935</v>
+        <v>3019.68</v>
       </c>
       <c r="K22" s="7">
-        <v>368056.4</v>
+        <v>2850.11</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
       </c>
       <c r="M22" s="7">
-        <v>368056.4</v>
+        <v>2850.11</v>
       </c>
       <c r="N22" s="7">
-        <v>1567594.535</v>
+        <v>169.5700000000002</v>
       </c>
       <c r="O22" s="7">
-        <v>1567594.535</v>
+        <v>169.5700000000002</v>
       </c>
       <c r="P22" s="7">
-        <v>1567594.535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>169.5700000000002</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="4">
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5">
-        <v>133</v>
+        <v>21.46</v>
       </c>
       <c r="D23" s="6">
-        <v>40839</v>
+        <v>43236</v>
       </c>
       <c r="E23" s="6">
-        <v>43225</v>
+        <v>43423</v>
       </c>
       <c r="F23" s="5">
-        <v>3.948571428571428</v>
+        <v>44.27166821994408</v>
       </c>
       <c r="G23" s="5">
-        <v>35394.55759398495</v>
+        <v>15.24557315936626</v>
       </c>
       <c r="H23" s="7">
-        <v>32962312.4895247</v>
+        <v>34006321.661307</v>
       </c>
       <c r="I23" s="7">
-        <v>34006321.661307</v>
+        <v>34107130.9152437</v>
       </c>
       <c r="J23" s="7">
-        <v>4707476.159999998</v>
+        <v>327.17</v>
       </c>
       <c r="K23" s="7">
-        <v>525.16</v>
+        <v>950.0699999999999</v>
       </c>
       <c r="L23" s="7">
-        <v>16.6318172</v>
+        <v>2.812207200000103</v>
       </c>
       <c r="M23" s="7">
-        <v>541.7918172</v>
+        <v>952.8822072</v>
       </c>
       <c r="N23" s="7">
-        <v>4706950.999999998</v>
+        <v>-622.9</v>
       </c>
       <c r="O23" s="7">
-        <v>4706934.368182798</v>
+        <v>-625.7122072000001</v>
       </c>
       <c r="P23" s="7">
-        <v>4706934.368182798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>-622.9</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4">
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5">
-        <v>0.05</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="D24" s="6">
-        <v>40839</v>
+        <v>43219</v>
       </c>
       <c r="E24" s="6">
-        <v>43376</v>
+        <v>43219</v>
       </c>
       <c r="F24" s="5">
-        <v>4</v>
+        <v>73.63249133234274</v>
       </c>
       <c r="G24" s="5">
-        <v>32340</v>
+        <v>70.89846458642893</v>
       </c>
       <c r="H24" s="7">
-        <v>32962312.4895247</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I24" s="7">
-        <v>34207940.1691804</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="J24" s="7">
-        <v>1617</v>
+        <v>5725.76</v>
       </c>
       <c r="K24" s="7">
-        <v>0.2</v>
+        <v>5946.56</v>
       </c>
       <c r="L24" s="7">
-        <v>0.007558000000000009</v>
+        <v>0</v>
       </c>
       <c r="M24" s="7">
-        <v>0.207558</v>
+        <v>5946.56</v>
       </c>
       <c r="N24" s="7">
-        <v>1616.8</v>
+        <v>-220.8000000000002</v>
       </c>
       <c r="O24" s="7">
-        <v>1616.792442</v>
+        <v>-220.8000000000002</v>
       </c>
       <c r="P24" s="7">
-        <v>1616.792442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>-220.8000000000002</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="5">
-        <v>0.051</v>
+        <v>19.28</v>
       </c>
       <c r="D25" s="6">
-        <v>40839</v>
+        <v>43219</v>
       </c>
       <c r="E25" s="6">
-        <v>43393</v>
+        <v>43220</v>
       </c>
       <c r="F25" s="5">
-        <v>3.921568627450981</v>
+        <v>74</v>
       </c>
       <c r="G25" s="5">
-        <v>23529.41176470588</v>
+        <v>63.55705394190871</v>
       </c>
       <c r="H25" s="7">
-        <v>32962312.4895247</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I25" s="7">
-        <v>34207940.1691804</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="J25" s="7">
-        <v>1200</v>
+        <v>1225.38</v>
       </c>
       <c r="K25" s="7">
-        <v>0.2</v>
+        <v>1426.72</v>
       </c>
       <c r="L25" s="7">
-        <v>0.007558000000000009</v>
+        <v>0</v>
       </c>
       <c r="M25" s="7">
-        <v>0.207558</v>
+        <v>1426.72</v>
       </c>
       <c r="N25" s="7">
-        <v>1199.8</v>
+        <v>-201.3400000000001</v>
       </c>
       <c r="O25" s="7">
-        <v>1199.792442</v>
+        <v>-201.3400000000001</v>
       </c>
       <c r="P25" s="7">
-        <v>1199.792442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>-201.3400000000001</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="4">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5">
-        <v>0.06</v>
+        <v>17.78</v>
       </c>
       <c r="D26" s="6">
-        <v>40839</v>
+        <v>43164</v>
       </c>
       <c r="E26" s="6">
-        <v>43426</v>
+        <v>43195</v>
       </c>
       <c r="F26" s="5">
-        <v>4</v>
+        <v>81.18953880764901</v>
       </c>
       <c r="G26" s="5">
-        <v>16893.66666666667</v>
+        <v>79.54330708661416</v>
       </c>
       <c r="H26" s="7">
-        <v>32962312.4895247</v>
+        <v>33703893.899497</v>
       </c>
       <c r="I26" s="7">
-        <v>34107130.9152437</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="J26" s="7">
-        <v>1013.62</v>
+        <v>1414.28</v>
       </c>
       <c r="K26" s="7">
-        <v>0.24</v>
+        <v>1443.549999999999</v>
       </c>
       <c r="L26" s="7">
-        <v>0.008335199999999987</v>
+        <v>5.759764499999847</v>
       </c>
       <c r="M26" s="7">
-        <v>0.2483352</v>
+        <v>1449.309764499999</v>
       </c>
       <c r="N26" s="7">
-        <v>1013.38</v>
+        <v>-29.26999999999953</v>
       </c>
       <c r="O26" s="7">
-        <v>1013.3716648</v>
+        <v>-35.02976449999937</v>
       </c>
       <c r="P26" s="7">
-        <v>1013.3716648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>-29.26999999999953</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="4">
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="5">
-        <v>96.30230999999999</v>
+        <v>21.37</v>
       </c>
       <c r="D27" s="6">
-        <v>42015</v>
+        <v>43164</v>
       </c>
       <c r="E27" s="6">
-        <v>43101</v>
+        <v>43256</v>
       </c>
       <c r="F27" s="5">
-        <v>8.98721951737191</v>
+        <v>81.18951801591017</v>
       </c>
       <c r="G27" s="5">
-        <v>2907.572622089751</v>
+        <v>85.68039307440338</v>
       </c>
       <c r="H27" s="7">
-        <v>33705015.1348795</v>
+        <v>33703893.899497</v>
       </c>
       <c r="I27" s="7">
-        <v>33569481.5609147</v>
+        <v>34039924.7459526</v>
       </c>
       <c r="J27" s="7">
-        <v>280005.96</v>
+        <v>1830.99</v>
       </c>
       <c r="K27" s="7">
-        <v>865.49</v>
+        <v>1735.02</v>
       </c>
       <c r="L27" s="7">
-        <v>0</v>
+        <v>17.29814940000006</v>
       </c>
       <c r="M27" s="7">
-        <v>865.49</v>
+        <v>1752.3181494</v>
       </c>
       <c r="N27" s="7">
-        <v>279140.47</v>
+        <v>95.97000000000025</v>
       </c>
       <c r="O27" s="7">
-        <v>279140.47</v>
+        <v>78.6718506000002</v>
       </c>
       <c r="P27" s="7">
-        <v>279140.47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>78.6718506000002</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="4">
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="5">
-        <v>0.007941999999999999</v>
+        <v>0.00081</v>
       </c>
       <c r="D28" s="6">
-        <v>42015</v>
+        <v>43164</v>
       </c>
       <c r="E28" s="6">
-        <v>43103</v>
+        <v>43237</v>
       </c>
       <c r="F28" s="5">
-        <v>8.813900780659784</v>
+        <v>86.41975308641976</v>
       </c>
       <c r="G28" s="5">
-        <v>2995.467136741375</v>
+        <v>61.7283950617284</v>
       </c>
       <c r="H28" s="7">
-        <v>33705015.1348795</v>
+        <v>33703893.899497</v>
       </c>
       <c r="I28" s="7">
-        <v>33569481.5609147</v>
+        <v>34006321.661307</v>
       </c>
       <c r="J28" s="7">
-        <v>23.79</v>
+        <v>0.05</v>
       </c>
       <c r="K28" s="7">
         <v>0.07000000000000001</v>
       </c>
       <c r="L28" s="7">
-        <v>0</v>
+        <v>0.0006279000000000007</v>
       </c>
       <c r="M28" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.07062790000000001</v>
       </c>
       <c r="N28" s="7">
-        <v>23.72</v>
+        <v>-0.02</v>
       </c>
       <c r="O28" s="7">
-        <v>23.72</v>
+        <v>-0.0206279</v>
       </c>
       <c r="P28" s="7">
-        <v>23.72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>-0.02</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="4">
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="5">
-        <v>3000.000193479998</v>
+        <v>30.18919</v>
       </c>
       <c r="D29" s="6">
-        <v>42015</v>
+        <v>43236</v>
       </c>
       <c r="E29" s="6">
-        <v>43155</v>
+        <v>43237</v>
       </c>
       <c r="F29" s="5">
-        <v>8.987156087055022</v>
+        <v>62.61744684107126</v>
       </c>
       <c r="G29" s="5">
-        <v>2877.776097735961</v>
+        <v>63.26370465719683</v>
       </c>
       <c r="H29" s="7">
-        <v>33705015.1348795</v>
+        <v>34006321.661307</v>
       </c>
       <c r="I29" s="7">
-        <v>33603084.6455603</v>
+        <v>34006321.661307</v>
       </c>
       <c r="J29" s="7">
-        <v>8633328.849999998</v>
+        <v>1909.88</v>
       </c>
       <c r="K29" s="7">
-        <v>26961.47</v>
+        <v>1890.37</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
       </c>
       <c r="M29" s="7">
-        <v>26961.47</v>
+        <v>1890.37</v>
       </c>
       <c r="N29" s="7">
-        <v>8606367.379999997</v>
+        <v>19.50999999999999</v>
       </c>
       <c r="O29" s="7">
-        <v>8606367.379999997</v>
+        <v>19.50999999999999</v>
       </c>
       <c r="P29" s="7">
-        <v>8606367.379999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>19.50999999999999</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="4">
         <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="5">
-        <v>300.01</v>
+        <v>0.08414953</v>
       </c>
       <c r="D30" s="6">
-        <v>42015</v>
+        <v>43219</v>
       </c>
       <c r="E30" s="6">
-        <v>43215</v>
+        <v>43164</v>
       </c>
       <c r="F30" s="5">
-        <v>8.987200426652445</v>
+        <v>2437.090260634849</v>
       </c>
       <c r="G30" s="5">
-        <v>2443.623012566248</v>
+        <v>2657.76885503698</v>
       </c>
       <c r="H30" s="7">
-        <v>33705015.1348795</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I30" s="7">
-        <v>33838306.2380792</v>
+        <v>33703893.899497</v>
       </c>
       <c r="J30" s="7">
-        <v>733111.34</v>
+        <v>223.65</v>
       </c>
       <c r="K30" s="7">
-        <v>2696.25</v>
+        <v>205.08</v>
       </c>
       <c r="L30" s="7">
-        <v>10.6501874999999</v>
+        <v>0</v>
       </c>
       <c r="M30" s="7">
-        <v>2706.9001875</v>
+        <v>205.08</v>
       </c>
       <c r="N30" s="7">
-        <v>730415.09</v>
+        <v>18.56999999999999</v>
       </c>
       <c r="O30" s="7">
-        <v>730404.4398124999</v>
+        <v>18.56999999999999</v>
       </c>
       <c r="P30" s="7">
-        <v>730404.4398124999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>18.56999999999999</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="4">
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" s="5">
-        <v>0.225</v>
+        <v>1.11180839</v>
       </c>
       <c r="D31" s="6">
-        <v>42015</v>
+        <v>43220</v>
       </c>
       <c r="E31" s="6">
-        <v>43372</v>
+        <v>43164</v>
       </c>
       <c r="F31" s="5">
-        <v>8.977777777777778</v>
+        <v>2446.671588797778</v>
       </c>
       <c r="G31" s="5">
-        <v>814.3555555555555</v>
+        <v>2657.814086112446</v>
       </c>
       <c r="H31" s="7">
-        <v>33705015.1348795</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I31" s="7">
-        <v>34107130.9152437</v>
+        <v>33703893.899497</v>
       </c>
       <c r="J31" s="7">
-        <v>183.23</v>
+        <v>2954.98</v>
       </c>
       <c r="K31" s="7">
-        <v>2.02</v>
+        <v>2720.23</v>
       </c>
       <c r="L31" s="7">
-        <v>0.02409859999999986</v>
+        <v>0</v>
       </c>
       <c r="M31" s="7">
-        <v>2.0440986</v>
+        <v>2720.23</v>
       </c>
       <c r="N31" s="7">
-        <v>181.21</v>
+        <v>234.7500000000005</v>
       </c>
       <c r="O31" s="7">
-        <v>181.1859014</v>
+        <v>234.7500000000005</v>
       </c>
       <c r="P31" s="7">
-        <v>181.1859014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>234.7500000000005</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="4">
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" s="5">
-        <v>0.225</v>
+        <v>0.60593113</v>
       </c>
       <c r="D32" s="6">
-        <v>42015</v>
+        <v>43164</v>
       </c>
       <c r="E32" s="6">
-        <v>43464</v>
+        <v>43195</v>
       </c>
       <c r="F32" s="5">
-        <v>8.977777777777778</v>
+        <v>2660.467370276883</v>
       </c>
       <c r="G32" s="5">
-        <v>522.7555555555556</v>
+        <v>2826.954937931643</v>
       </c>
       <c r="H32" s="7">
-        <v>33705015.1348795</v>
+        <v>33703893.899497</v>
       </c>
       <c r="I32" s="7">
-        <v>34006321.7</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="J32" s="7">
-        <v>117.62</v>
+        <v>1712.94</v>
       </c>
       <c r="K32" s="7">
-        <v>2.02</v>
+        <v>1612.06</v>
       </c>
       <c r="L32" s="7">
-        <v>0.01805879999999993</v>
+        <v>6.43211939999992</v>
       </c>
       <c r="M32" s="7">
-        <v>2.0380588</v>
+        <v>1618.4921194</v>
       </c>
       <c r="N32" s="7">
-        <v>115.6</v>
+        <v>100.8800000000001</v>
       </c>
       <c r="O32" s="7">
-        <v>115.5819412</v>
+        <v>94.44788060000019</v>
       </c>
       <c r="P32" s="7">
-        <v>115.5819412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>94.44788060000019</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="4">
         <v>20</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="5">
-        <v>499999.9964059999</v>
+        <v>0.00155834</v>
       </c>
       <c r="D33" s="6">
-        <v>43043</v>
+        <v>43220</v>
       </c>
       <c r="E33" s="6">
-        <v>43103</v>
+        <v>43195</v>
       </c>
       <c r="F33" s="5">
-        <v>0.05390000038743321</v>
+        <v>2444.909326591116</v>
       </c>
       <c r="G33" s="5">
-        <v>1.247283548965474</v>
+        <v>2829.934417392867</v>
       </c>
       <c r="H33" s="7">
-        <v>33703893.899497</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="I33" s="7">
-        <v>33569481.5609147</v>
+        <v>33838306.2380792</v>
       </c>
       <c r="J33" s="7">
-        <v>623641.7699999999</v>
+        <v>4.41</v>
       </c>
       <c r="K33" s="7">
-        <v>26950</v>
+        <v>3.81</v>
       </c>
       <c r="L33" s="7">
         <v>0</v>
       </c>
       <c r="M33" s="7">
-        <v>26950</v>
+        <v>3.81</v>
       </c>
       <c r="N33" s="7">
-        <v>596691.7699999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="O33" s="7">
-        <v>596691.7699999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="P33" s="7">
-        <v>596691.7699999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="4">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="5">
-        <v>499999.996851</v>
+        <v>0.5920322100000001</v>
       </c>
       <c r="D34" s="6">
-        <v>43043</v>
+        <v>43164</v>
       </c>
       <c r="E34" s="6">
-        <v>43154</v>
+        <v>43256</v>
       </c>
       <c r="F34" s="5">
-        <v>0.05389994033946183</v>
+        <v>2660.463355532632</v>
       </c>
       <c r="G34" s="5">
-        <v>1.433937829030941</v>
+        <v>2864.438743966312</v>
       </c>
       <c r="H34" s="7">
         <v>33703893.899497</v>
       </c>
       <c r="I34" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1695.84</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1575.08</v>
+      </c>
+      <c r="L34" s="7">
+        <v>15.70354760000009</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1590.7835476</v>
+      </c>
+      <c r="N34" s="7">
+        <v>120.76</v>
+      </c>
+      <c r="O34" s="7">
+        <v>105.0564523999999</v>
+      </c>
+      <c r="P34" s="7">
+        <v>105.0564523999999</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="4">
+        <v>22</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.60545427</v>
+      </c>
+      <c r="D35" s="6">
+        <v>43195</v>
+      </c>
+      <c r="E35" s="6">
+        <v>43256</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2829.825611767509</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2864.460762660077</v>
+      </c>
+      <c r="H35" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I35" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1734.3</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1713.33</v>
+      </c>
+      <c r="L35" s="7">
+        <v>10.21144679999998</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1723.5414468</v>
+      </c>
+      <c r="N35" s="7">
+        <v>20.9699999999998</v>
+      </c>
+      <c r="O35" s="7">
+        <v>10.75855319999982</v>
+      </c>
+      <c r="P35" s="7">
+        <v>10.75855319999982</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="4">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.05220352</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43256</v>
+      </c>
+      <c r="E36" s="6">
+        <v>43256</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2859.085664339917</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2864.33179771153</v>
+      </c>
+      <c r="H36" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I36" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J36" s="7">
+        <v>3013.86</v>
+      </c>
+      <c r="K36" s="7">
+        <v>3008.34</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3008.34</v>
+      </c>
+      <c r="N36" s="7">
+        <v>5.520000000000437</v>
+      </c>
+      <c r="O36" s="7">
+        <v>5.520000000000437</v>
+      </c>
+      <c r="P36" s="7">
+        <v>5.520000000000437</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="4">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.8090721000000001</v>
+      </c>
+      <c r="D37" s="6">
+        <v>43256</v>
+      </c>
+      <c r="E37" s="6">
+        <v>43286</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2859.090061318392</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2685.570297134211</v>
+      </c>
+      <c r="H37" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I37" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J37" s="7">
+        <v>2172.82</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2313.21</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>2313.21</v>
+      </c>
+      <c r="N37" s="7">
+        <v>-140.3899999999999</v>
+      </c>
+      <c r="O37" s="7">
+        <v>-140.3899999999999</v>
+      </c>
+      <c r="P37" s="7">
+        <v>-140.3899999999999</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="4">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.1975375</v>
+      </c>
+      <c r="D38" s="6">
+        <v>43256</v>
+      </c>
+      <c r="E38" s="6">
+        <v>43235</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2859.075394298718</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2551.27709988205</v>
+      </c>
+      <c r="H38" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I38" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J38" s="7">
+        <v>3055.25</v>
+      </c>
+      <c r="K38" s="7">
+        <v>3423.85</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3423.85</v>
+      </c>
+      <c r="N38" s="7">
+        <v>-368.6000000000004</v>
+      </c>
+      <c r="O38" s="7">
+        <v>-368.6000000000004</v>
+      </c>
+      <c r="P38" s="7">
+        <v>-368.6000000000004</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="4">
+        <v>26</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.582417</v>
+      </c>
+      <c r="D39" s="6">
+        <v>43378</v>
+      </c>
+      <c r="E39" s="6">
+        <v>43235</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2742.828591885196</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2551.264815415759</v>
+      </c>
+      <c r="H39" s="7">
+        <v>34207940.1691804</v>
+      </c>
+      <c r="I39" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1485.9</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1597.47</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1597.47</v>
+      </c>
+      <c r="N39" s="7">
+        <v>-111.5699999999999</v>
+      </c>
+      <c r="O39" s="7">
+        <v>-111.5699999999999</v>
+      </c>
+      <c r="P39" s="7">
+        <v>-111.5699999999999</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="4">
+        <v>27</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3.1295</v>
+      </c>
+      <c r="D40" s="6">
+        <v>43235</v>
+      </c>
+      <c r="E40" s="6">
+        <v>43235</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2598.236139958459</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2572.545135005592</v>
+      </c>
+      <c r="H40" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I40" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8050.780000000001</v>
+      </c>
+      <c r="K40" s="7">
+        <v>8131.179999999999</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>8131.179999999999</v>
+      </c>
+      <c r="N40" s="7">
+        <v>-80.39999999999873</v>
+      </c>
+      <c r="O40" s="7">
+        <v>-80.39999999999873</v>
+      </c>
+      <c r="P40" s="7">
+        <v>-80.39999999999873</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="4">
+        <v>28</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4E-08</v>
+      </c>
+      <c r="D41" s="6">
+        <v>43235</v>
+      </c>
+      <c r="E41" s="6">
+        <v>43236</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I41" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="4">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3.80239922</v>
+      </c>
+      <c r="D42" s="6">
+        <v>43236</v>
+      </c>
+      <c r="E42" s="6">
+        <v>43236</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2467.657775292726</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2495.895210077389</v>
+      </c>
+      <c r="H42" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I42" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J42" s="7">
+        <v>9490.389999999999</v>
+      </c>
+      <c r="K42" s="7">
+        <v>9383.019999999999</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>9383.019999999999</v>
+      </c>
+      <c r="N42" s="7">
+        <v>107.3700000000008</v>
+      </c>
+      <c r="O42" s="7">
+        <v>107.3700000000008</v>
+      </c>
+      <c r="P42" s="7">
+        <v>107.3700000000008</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="4">
+        <v>30</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3.17428078</v>
+      </c>
+      <c r="D43" s="6">
+        <v>43207</v>
+      </c>
+      <c r="E43" s="6">
+        <v>43207</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1810.580222207061</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1806.62342037682</v>
+      </c>
+      <c r="H43" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I43" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J43" s="7">
+        <v>5734.73</v>
+      </c>
+      <c r="K43" s="7">
+        <v>5747.290000000001</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>5747.290000000001</v>
+      </c>
+      <c r="N43" s="7">
+        <v>-12.56000000000131</v>
+      </c>
+      <c r="O43" s="7">
+        <v>-12.56000000000131</v>
+      </c>
+      <c r="P43" s="7">
+        <v>-12.56000000000131</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="4">
+        <v>31</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.67295344</v>
+      </c>
+      <c r="D44" s="6">
+        <v>43149</v>
+      </c>
+      <c r="E44" s="6">
+        <v>43207</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3331.805540662664</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1820.096201603487</v>
+      </c>
+      <c r="H44" s="7">
         <v>33603084.6455603</v>
       </c>
-      <c r="J34" s="7">
-        <v>716968.9100000001</v>
-      </c>
-      <c r="K34" s="7">
-        <v>26949.97</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
-        <v>26949.97</v>
-      </c>
-      <c r="N34" s="7">
-        <v>690018.9400000002</v>
-      </c>
-      <c r="O34" s="7">
-        <v>690018.9400000002</v>
-      </c>
-      <c r="P34" s="7">
-        <v>690018.9400000002</v>
+      <c r="I44" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1224.84</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2242.15</v>
+      </c>
+      <c r="L44" s="7">
+        <v>15.69504999999981</v>
+      </c>
+      <c r="M44" s="7">
+        <v>2257.84505</v>
+      </c>
+      <c r="N44" s="7">
+        <v>-1017.31</v>
+      </c>
+      <c r="O44" s="7">
+        <v>-1033.00505</v>
+      </c>
+      <c r="P44" s="7">
+        <v>-1017.31</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="4">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.5288598</v>
+      </c>
+      <c r="D45" s="6">
+        <v>43150</v>
+      </c>
+      <c r="E45" s="6">
+        <v>43207</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3326.212353444145</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1820.085398814582</v>
+      </c>
+      <c r="H45" s="7">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="I45" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J45" s="7">
+        <v>962.5700000000001</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1759.1</v>
+      </c>
+      <c r="L45" s="7">
+        <v>12.31369999999993</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1771.4137</v>
+      </c>
+      <c r="N45" s="7">
+        <v>-796.5299999999999</v>
+      </c>
+      <c r="O45" s="7">
+        <v>-808.8436999999998</v>
+      </c>
+      <c r="P45" s="7">
+        <v>-796.5299999999999</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="4">
+        <v>33</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6.451E-05</v>
+      </c>
+      <c r="D46" s="6">
+        <v>43236</v>
+      </c>
+      <c r="E46" s="6">
+        <v>43237</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2480.235622384127</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2480.235622384127</v>
+      </c>
+      <c r="H46" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I46" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="4">
+        <v>34</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3.07639106</v>
+      </c>
+      <c r="D47" s="6">
+        <v>43237</v>
+      </c>
+      <c r="E47" s="6">
+        <v>43237</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2534.134915864695</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2501.619543778026</v>
+      </c>
+      <c r="H47" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I47" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J47" s="7">
+        <v>7695.959999999999</v>
+      </c>
+      <c r="K47" s="7">
+        <v>7795.99</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>7795.99</v>
+      </c>
+      <c r="N47" s="7">
+        <v>-100.0300000000007</v>
+      </c>
+      <c r="O47" s="7">
+        <v>-100.0300000000007</v>
+      </c>
+      <c r="P47" s="7">
+        <v>-100.0300000000007</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="4">
+        <v>35</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1.19753582</v>
+      </c>
+      <c r="D48" s="6">
+        <v>43207</v>
+      </c>
+      <c r="E48" s="6">
+        <v>43208</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1830.951495045885</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1803.804081618202</v>
+      </c>
+      <c r="H48" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I48" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J48" s="7">
+        <v>2160.12</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2192.63</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2192.63</v>
+      </c>
+      <c r="N48" s="7">
+        <v>-32.50999999999976</v>
+      </c>
+      <c r="O48" s="7">
+        <v>-32.50999999999976</v>
+      </c>
+      <c r="P48" s="7">
+        <v>-32.50999999999976</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="4">
+        <v>36</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.09725402</v>
+      </c>
+      <c r="D49" s="6">
+        <v>43208</v>
+      </c>
+      <c r="E49" s="6">
+        <v>43208</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1805.580890126701</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1803.832890403914</v>
+      </c>
+      <c r="H49" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I49" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J49" s="7">
+        <v>175.43</v>
+      </c>
+      <c r="K49" s="7">
+        <v>175.6</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>175.6</v>
+      </c>
+      <c r="N49" s="7">
+        <v>-0.1699999999999875</v>
+      </c>
+      <c r="O49" s="7">
+        <v>-0.1699999999999875</v>
+      </c>
+      <c r="P49" s="7">
+        <v>-0.1699999999999875</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="4">
+        <v>37</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.19749893</v>
+      </c>
+      <c r="D50" s="6">
+        <v>43208</v>
+      </c>
+      <c r="E50" s="6">
+        <v>43210</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1805.613304389341</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1978.991329871167</v>
+      </c>
+      <c r="H50" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I50" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J50" s="7">
+        <v>2369.84</v>
+      </c>
+      <c r="K50" s="7">
+        <v>2162.22</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2162.22</v>
+      </c>
+      <c r="N50" s="7">
+        <v>207.6199999999999</v>
+      </c>
+      <c r="O50" s="7">
+        <v>207.6199999999999</v>
+      </c>
+      <c r="P50" s="7">
+        <v>207.6199999999999</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="4">
+        <v>38</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.28670822</v>
+      </c>
+      <c r="D51" s="6">
+        <v>43209</v>
+      </c>
+      <c r="E51" s="6">
+        <v>43210</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1906.25856489221</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1978.945703056578</v>
+      </c>
+      <c r="H51" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I51" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J51" s="7">
+        <v>567.38</v>
+      </c>
+      <c r="K51" s="7">
+        <v>546.54</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>546.54</v>
+      </c>
+      <c r="N51" s="7">
+        <v>20.84000000000003</v>
+      </c>
+      <c r="O51" s="7">
+        <v>20.84000000000003</v>
+      </c>
+      <c r="P51" s="7">
+        <v>20.84000000000003</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="4">
+        <v>39</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4.614496229999999</v>
+      </c>
+      <c r="D52" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E52" s="6">
+        <v>43210</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2061.661669187235</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2016.95039633828</v>
+      </c>
+      <c r="H52" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I52" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J52" s="7">
+        <v>9307.209999999999</v>
+      </c>
+      <c r="K52" s="7">
+        <v>9513.530000000001</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>9513.530000000001</v>
+      </c>
+      <c r="N52" s="7">
+        <v>-206.3200000000015</v>
+      </c>
+      <c r="O52" s="7">
+        <v>-206.3200000000015</v>
+      </c>
+      <c r="P52" s="7">
+        <v>-206.3200000000015</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="4">
+        <v>40</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.56461091</v>
+      </c>
+      <c r="D53" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E53" s="6">
+        <v>43211</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2073.757067499958</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2074.416036856054</v>
+      </c>
+      <c r="H53" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I53" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J53" s="7">
+        <v>5320.07</v>
+      </c>
+      <c r="K53" s="7">
+        <v>5318.379999999999</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>5318.379999999999</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1.690000000000509</v>
+      </c>
+      <c r="O53" s="7">
+        <v>1.690000000000509</v>
+      </c>
+      <c r="P53" s="7">
+        <v>1.690000000000509</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="4">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1.04877909</v>
+      </c>
+      <c r="D54" s="6">
+        <v>43211</v>
+      </c>
+      <c r="E54" s="6">
+        <v>43211</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2132.841912399302</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2073.229739925498</v>
+      </c>
+      <c r="H54" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I54" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2174.36</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2236.88</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>2236.88</v>
+      </c>
+      <c r="N54" s="7">
+        <v>-62.51999999999998</v>
+      </c>
+      <c r="O54" s="7">
+        <v>-62.51999999999998</v>
+      </c>
+      <c r="P54" s="7">
+        <v>-62.51999999999998</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="4">
+        <v>42</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1.19747766</v>
+      </c>
+      <c r="D55" s="6">
+        <v>43211</v>
+      </c>
+      <c r="E55" s="6">
+        <v>43212</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2132.824757666043</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2192.926087656617</v>
+      </c>
+      <c r="H55" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I55" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J55" s="7">
+        <v>2625.98</v>
+      </c>
+      <c r="K55" s="7">
+        <v>2554.01</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>2554.01</v>
+      </c>
+      <c r="N55" s="7">
+        <v>71.9699999999998</v>
+      </c>
+      <c r="O55" s="7">
+        <v>71.9699999999998</v>
+      </c>
+      <c r="P55" s="7">
+        <v>71.9699999999998</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="4">
+        <v>43</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.18899524</v>
+      </c>
+      <c r="D56" s="6">
+        <v>43212</v>
+      </c>
+      <c r="E56" s="6">
+        <v>43212</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2213.029024220262</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2192.928477998883</v>
+      </c>
+      <c r="H56" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I56" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J56" s="7">
+        <v>4800.31</v>
+      </c>
+      <c r="K56" s="7">
+        <v>4844.309999999999</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>4844.309999999999</v>
+      </c>
+      <c r="N56" s="7">
+        <v>-43.99999999999909</v>
+      </c>
+      <c r="O56" s="7">
+        <v>-43.99999999999909</v>
+      </c>
+      <c r="P56" s="7">
+        <v>-43.99999999999909</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="4">
+        <v>44</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1.19751486</v>
+      </c>
+      <c r="D57" s="6">
+        <v>43212</v>
+      </c>
+      <c r="E57" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2213.02473023174</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2273.583477703149</v>
+      </c>
+      <c r="H57" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I57" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J57" s="7">
+        <v>2722.65</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2650.13</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>2650.13</v>
+      </c>
+      <c r="N57" s="7">
+        <v>72.51999999999998</v>
+      </c>
+      <c r="O57" s="7">
+        <v>72.51999999999998</v>
+      </c>
+      <c r="P57" s="7">
+        <v>72.51999999999998</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="4">
+        <v>45</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="5">
+        <v>6.471713930000002</v>
+      </c>
+      <c r="D58" s="6">
+        <v>43215</v>
+      </c>
+      <c r="E58" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2312.843268707335</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2284.220248282822</v>
+      </c>
+      <c r="H58" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I58" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J58" s="7">
+        <v>14782.82</v>
+      </c>
+      <c r="K58" s="7">
+        <v>14968.06</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>14968.06</v>
+      </c>
+      <c r="N58" s="7">
+        <v>-185.2399999999998</v>
+      </c>
+      <c r="O58" s="7">
+        <v>-185.2399999999998</v>
+      </c>
+      <c r="P58" s="7">
+        <v>-185.2399999999998</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="4">
+        <v>46</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1.19750629</v>
+      </c>
+      <c r="D59" s="6">
+        <v>43215</v>
+      </c>
+      <c r="E59" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2352.96467628575</v>
+      </c>
+      <c r="G59" s="5">
+        <v>2402.091766883329</v>
+      </c>
+      <c r="H59" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I59" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J59" s="7">
+        <v>2876.52</v>
+      </c>
+      <c r="K59" s="7">
+        <v>2817.69</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>2817.69</v>
+      </c>
+      <c r="N59" s="7">
+        <v>58.83000000000038</v>
+      </c>
+      <c r="O59" s="7">
+        <v>58.83000000000038</v>
+      </c>
+      <c r="P59" s="7">
+        <v>58.83000000000038</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="4">
+        <v>47</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="5">
+        <v>17.90023728</v>
+      </c>
+      <c r="D60" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E60" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2441.484395786737</v>
+      </c>
+      <c r="G60" s="5">
+        <v>2430.53928947695</v>
+      </c>
+      <c r="H60" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I60" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J60" s="7">
+        <v>43507.23</v>
+      </c>
+      <c r="K60" s="7">
+        <v>43703.15</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>43703.15</v>
+      </c>
+      <c r="N60" s="7">
+        <v>-195.9199999999983</v>
+      </c>
+      <c r="O60" s="7">
+        <v>-195.9199999999983</v>
+      </c>
+      <c r="P60" s="7">
+        <v>-195.9199999999983</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="4">
+        <v>48</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1.11357324</v>
+      </c>
+      <c r="D61" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E61" s="6">
+        <v>43220</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2437.109569910283</v>
+      </c>
+      <c r="G61" s="5">
+        <v>2444.221809784151</v>
+      </c>
+      <c r="H61" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I61" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J61" s="7">
+        <v>2721.82</v>
+      </c>
+      <c r="K61" s="7">
+        <v>2713.9</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>2713.9</v>
+      </c>
+      <c r="N61" s="7">
+        <v>7.920000000000073</v>
+      </c>
+      <c r="O61" s="7">
+        <v>7.920000000000073</v>
+      </c>
+      <c r="P61" s="7">
+        <v>7.920000000000073</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="4">
+        <v>49</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1.06385336</v>
+      </c>
+      <c r="D62" s="6">
+        <v>43237</v>
+      </c>
+      <c r="E62" s="6">
+        <v>43250</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2504.123312633989</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2016.462118425795</v>
+      </c>
+      <c r="H62" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I62" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2145.22</v>
+      </c>
+      <c r="K62" s="7">
+        <v>2664.02</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>2664.02</v>
+      </c>
+      <c r="N62" s="7">
+        <v>-518.8000000000002</v>
+      </c>
+      <c r="O62" s="7">
+        <v>-518.8000000000002</v>
+      </c>
+      <c r="P62" s="7">
+        <v>-518.8000000000002</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="4">
+        <v>50</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="5">
+        <v>261.6</v>
+      </c>
+      <c r="D63" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E63" s="6">
+        <v>43256</v>
+      </c>
+      <c r="F63" s="5">
+        <v>16.35867737003058</v>
+      </c>
+      <c r="G63" s="5">
+        <v>15.03436544342507</v>
+      </c>
+      <c r="H63" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I63" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J63" s="7">
+        <v>3932.99</v>
+      </c>
+      <c r="K63" s="7">
+        <v>4279.43</v>
+      </c>
+      <c r="L63" s="7">
+        <v>25.5054027999995</v>
+      </c>
+      <c r="M63" s="7">
+        <v>4304.9354028</v>
+      </c>
+      <c r="N63" s="7">
+        <v>-346.4400000000005</v>
+      </c>
+      <c r="O63" s="7">
+        <v>-371.9454028</v>
+      </c>
+      <c r="P63" s="7">
+        <v>-346.4400000000005</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="4">
+        <v>51</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="5">
+        <v>122.64571</v>
+      </c>
+      <c r="D64" s="6">
+        <v>43286</v>
+      </c>
+      <c r="E64" s="6">
+        <v>43235</v>
+      </c>
+      <c r="F64" s="5">
+        <v>14.81095425188537</v>
+      </c>
+      <c r="G64" s="5">
+        <v>14.57800684589783</v>
+      </c>
+      <c r="H64" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I64" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1787.93</v>
+      </c>
+      <c r="K64" s="7">
+        <v>1816.5</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>1816.5</v>
+      </c>
+      <c r="N64" s="7">
+        <v>-28.57000000000016</v>
+      </c>
+      <c r="O64" s="7">
+        <v>-28.57000000000016</v>
+      </c>
+      <c r="P64" s="7">
+        <v>-28.57000000000016</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="4">
+        <v>52</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="5">
+        <v>87.20429</v>
+      </c>
+      <c r="D65" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E65" s="6">
+        <v>43235</v>
+      </c>
+      <c r="F65" s="5">
+        <v>16.35871354494142</v>
+      </c>
+      <c r="G65" s="5">
+        <v>14.57806720288646</v>
+      </c>
+      <c r="H65" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I65" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J65" s="7">
+        <v>1271.27</v>
+      </c>
+      <c r="K65" s="7">
+        <v>1426.55</v>
+      </c>
+      <c r="L65" s="7">
+        <v>7.089953499999865</v>
+      </c>
+      <c r="M65" s="7">
+        <v>1433.6399535</v>
+      </c>
+      <c r="N65" s="7">
+        <v>-155.28</v>
+      </c>
+      <c r="O65" s="7">
+        <v>-162.3699534999998</v>
+      </c>
+      <c r="P65" s="7">
+        <v>-155.28</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="4">
+        <v>53</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.00152</v>
+      </c>
+      <c r="D66" s="6">
+        <v>43286</v>
+      </c>
+      <c r="E66" s="6">
+        <v>43423</v>
+      </c>
+      <c r="F66" s="5">
+        <v>13.15789473684211</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I66" s="7">
+        <v>34107130.9152437</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L66" s="7">
+        <v>3.940000000000193E-05</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0.0200394</v>
+      </c>
+      <c r="N66" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="O66" s="7">
+        <v>-0.0200394</v>
+      </c>
+      <c r="P66" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="4">
+        <v>54</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5">
+        <v>202.42737</v>
+      </c>
+      <c r="D67" s="6">
+        <v>43237</v>
+      </c>
+      <c r="E67" s="6">
+        <v>43423</v>
+      </c>
+      <c r="F67" s="5">
+        <v>13.67097739796748</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1.274531205933269</v>
+      </c>
+      <c r="H67" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I67" s="7">
+        <v>34107130.9152437</v>
+      </c>
+      <c r="J67" s="7">
+        <v>258</v>
+      </c>
+      <c r="K67" s="7">
+        <v>2767.380000000001</v>
+      </c>
+      <c r="L67" s="7">
+        <v>8.191444800000227</v>
+      </c>
+      <c r="M67" s="7">
+        <v>2775.571444800001</v>
+      </c>
+      <c r="N67" s="7">
+        <v>-2509.380000000001</v>
+      </c>
+      <c r="O67" s="7">
+        <v>-2517.571444800001</v>
+      </c>
+      <c r="P67" s="7">
+        <v>-2509.380000000001</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="4">
+        <v>55</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="5">
+        <v>230.76111</v>
+      </c>
+      <c r="D68" s="6">
+        <v>43250</v>
+      </c>
+      <c r="E68" s="6">
+        <v>43423</v>
+      </c>
+      <c r="F68" s="5">
+        <v>9.295933790576759</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1.274348177645705</v>
+      </c>
+      <c r="H68" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I68" s="7">
+        <v>34107130.9152437</v>
+      </c>
+      <c r="J68" s="7">
+        <v>294.07</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2145.14</v>
+      </c>
+      <c r="L68" s="7">
+        <v>6.349614400000064</v>
+      </c>
+      <c r="M68" s="7">
+        <v>2151.4896144</v>
+      </c>
+      <c r="N68" s="7">
+        <v>-1851.07</v>
+      </c>
+      <c r="O68" s="7">
+        <v>-1857.4196144</v>
+      </c>
+      <c r="P68" s="7">
+        <v>-1851.07</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="4">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="5">
+        <v>379.4299999999999</v>
+      </c>
+      <c r="D69" s="6">
+        <v>43207</v>
+      </c>
+      <c r="E69" s="6">
+        <v>43210</v>
+      </c>
+      <c r="F69" s="5">
+        <v>10.35432095511689</v>
+      </c>
+      <c r="G69" s="5">
+        <v>11.91431884669109</v>
+      </c>
+      <c r="H69" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I69" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J69" s="7">
+        <v>4520.65</v>
+      </c>
+      <c r="K69" s="7">
+        <v>3928.74</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>3928.74</v>
+      </c>
+      <c r="N69" s="7">
+        <v>591.9099999999999</v>
+      </c>
+      <c r="O69" s="7">
+        <v>591.9099999999999</v>
+      </c>
+      <c r="P69" s="7">
+        <v>591.9099999999999</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="4">
+        <v>57</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.00019</v>
+      </c>
+      <c r="D70" s="6">
+        <v>43207</v>
+      </c>
+      <c r="E70" s="6">
+        <v>43211</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I70" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="4">
+        <v>58</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="5">
+        <v>152.28981</v>
+      </c>
+      <c r="D71" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E71" s="6">
+        <v>43211</v>
+      </c>
+      <c r="F71" s="5">
+        <v>12.30253028748279</v>
+      </c>
+      <c r="G71" s="5">
+        <v>12.29675183126172</v>
+      </c>
+      <c r="H71" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I71" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1872.67</v>
+      </c>
+      <c r="K71" s="7">
+        <v>1873.55</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>1873.55</v>
+      </c>
+      <c r="N71" s="7">
+        <v>-0.8799999999998818</v>
+      </c>
+      <c r="O71" s="7">
+        <v>-0.8799999999998818</v>
+      </c>
+      <c r="P71" s="7">
+        <v>-0.8799999999998818</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="4">
+        <v>59</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.00774</v>
+      </c>
+      <c r="D72" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E72" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F72" s="5">
+        <v>12.91989664082687</v>
+      </c>
+      <c r="G72" s="5">
+        <v>12.91989664082687</v>
+      </c>
+      <c r="H72" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I72" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="4">
+        <v>60</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="5">
+        <v>299.06226</v>
+      </c>
+      <c r="D73" s="6">
+        <v>43212</v>
+      </c>
+      <c r="E73" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F73" s="5">
+        <v>12.41564214755817</v>
+      </c>
+      <c r="G73" s="5">
+        <v>13.33735657585146</v>
+      </c>
+      <c r="H73" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I73" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J73" s="7">
+        <v>3988.7</v>
+      </c>
+      <c r="K73" s="7">
+        <v>3713.05</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>3713.05</v>
+      </c>
+      <c r="N73" s="7">
+        <v>275.6500000000001</v>
+      </c>
+      <c r="O73" s="7">
+        <v>275.6500000000001</v>
+      </c>
+      <c r="P73" s="7">
+        <v>275.6500000000001</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="4">
+        <v>61</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.008370000000000001</v>
+      </c>
+      <c r="D74" s="6">
+        <v>43212</v>
+      </c>
+      <c r="E74" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F74" s="5">
+        <v>11.94743130227001</v>
+      </c>
+      <c r="G74" s="5">
+        <v>16.72640382317802</v>
+      </c>
+      <c r="H74" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I74" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="4">
+        <v>62</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="5">
+        <v>231.70806</v>
+      </c>
+      <c r="D75" s="6">
+        <v>43215</v>
+      </c>
+      <c r="E75" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F75" s="5">
+        <v>13.95527630760881</v>
+      </c>
+      <c r="G75" s="5">
+        <v>16.22062693891615</v>
+      </c>
+      <c r="H75" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I75" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J75" s="7">
+        <v>3758.45</v>
+      </c>
+      <c r="K75" s="7">
+        <v>3233.55</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>3233.55</v>
+      </c>
+      <c r="N75" s="7">
+        <v>524.8999999999996</v>
+      </c>
+      <c r="O75" s="7">
+        <v>524.8999999999996</v>
+      </c>
+      <c r="P75" s="7">
+        <v>524.8999999999996</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="4">
+        <v>63</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="5">
+        <v>182.80357</v>
+      </c>
+      <c r="D76" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E76" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F76" s="5">
+        <v>16.26784422207947</v>
+      </c>
+      <c r="G76" s="5">
+        <v>16.07720243100285</v>
+      </c>
+      <c r="H76" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I76" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J76" s="7">
+        <v>2938.97</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2973.82</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7">
+        <v>2973.82</v>
+      </c>
+      <c r="N76" s="7">
+        <v>-34.85000000000036</v>
+      </c>
+      <c r="O76" s="7">
+        <v>-34.85000000000036</v>
+      </c>
+      <c r="P76" s="7">
+        <v>-34.85000000000036</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="4">
+        <v>64</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="5">
+        <v>249.3</v>
+      </c>
+      <c r="D77" s="6">
+        <v>43133</v>
+      </c>
+      <c r="E77" s="6">
+        <v>43208</v>
+      </c>
+      <c r="F77" s="5">
+        <v>5.564580826313678</v>
+      </c>
+      <c r="G77" s="5">
+        <v>5.668632170076213</v>
+      </c>
+      <c r="H77" s="7">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="I77" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J77" s="7">
+        <v>1413.19</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1387.25</v>
+      </c>
+      <c r="L77" s="7">
+        <v>9.710749999999962</v>
+      </c>
+      <c r="M77" s="7">
+        <v>1396.96075</v>
+      </c>
+      <c r="N77" s="7">
+        <v>25.94000000000005</v>
+      </c>
+      <c r="O77" s="7">
+        <v>16.22925000000009</v>
+      </c>
+      <c r="P77" s="7">
+        <v>16.22925000000009</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="4">
+        <v>65</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="5">
+        <v>162.7</v>
+      </c>
+      <c r="D78" s="6">
+        <v>43126</v>
+      </c>
+      <c r="E78" s="6">
+        <v>43208</v>
+      </c>
+      <c r="F78" s="5">
+        <v>7.948985863552551</v>
+      </c>
+      <c r="G78" s="5">
+        <v>5.668653964351567</v>
+      </c>
+      <c r="H78" s="7">
+        <v>33569481.5609147</v>
+      </c>
+      <c r="I78" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J78" s="7">
+        <v>922.29</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1293.3</v>
+      </c>
+      <c r="L78" s="7">
+        <v>10.35933300000011</v>
+      </c>
+      <c r="M78" s="7">
+        <v>1303.659333</v>
+      </c>
+      <c r="N78" s="7">
+        <v>-371.01</v>
+      </c>
+      <c r="O78" s="7">
+        <v>-381.3693330000001</v>
+      </c>
+      <c r="P78" s="7">
+        <v>-371.01</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="4">
+        <v>66</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="5">
+        <v>137</v>
+      </c>
+      <c r="D79" s="6">
+        <v>43126</v>
+      </c>
+      <c r="E79" s="6">
+        <v>43150</v>
+      </c>
+      <c r="F79" s="5">
+        <v>7.94905109489051</v>
+      </c>
+      <c r="G79" s="5">
+        <v>7.445839416058394</v>
+      </c>
+      <c r="H79" s="7">
+        <v>33569481.5609147</v>
+      </c>
+      <c r="I79" s="7">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="J79" s="7">
+        <v>1020.08</v>
+      </c>
+      <c r="K79" s="7">
+        <v>1089.02</v>
+      </c>
+      <c r="L79" s="7">
+        <v>1.089019999999891</v>
+      </c>
+      <c r="M79" s="7">
+        <v>1090.10902</v>
+      </c>
+      <c r="N79" s="7">
+        <v>-68.93999999999994</v>
+      </c>
+      <c r="O79" s="7">
+        <v>-70.02901999999983</v>
+      </c>
+      <c r="P79" s="7">
+        <v>-68.93999999999994</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="4">
+        <v>67</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="5">
+        <v>50.64</v>
+      </c>
+      <c r="D80" s="6">
+        <v>43133</v>
+      </c>
+      <c r="E80" s="6">
+        <v>43150</v>
+      </c>
+      <c r="F80" s="5">
+        <v>13.30272511848341</v>
+      </c>
+      <c r="G80" s="5">
+        <v>14.58333333333333</v>
+      </c>
+      <c r="H80" s="7">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="I80" s="7">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="J80" s="7">
+        <v>738.5</v>
+      </c>
+      <c r="K80" s="7">
+        <v>673.65</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>673.65</v>
+      </c>
+      <c r="N80" s="7">
+        <v>64.85000000000002</v>
+      </c>
+      <c r="O80" s="7">
+        <v>64.85000000000002</v>
+      </c>
+      <c r="P80" s="7">
+        <v>64.85000000000002</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="4">
+        <v>68</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="5">
+        <v>3058.198</v>
+      </c>
+      <c r="D81" s="6">
+        <v>43195</v>
+      </c>
+      <c r="E81" s="6">
+        <v>43256</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.3048527269980557</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.2992023407248321</v>
+      </c>
+      <c r="H81" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I81" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J81" s="7">
+        <v>915.02</v>
+      </c>
+      <c r="K81" s="7">
+        <v>932.3</v>
+      </c>
+      <c r="L81" s="7">
+        <v>5.556508000000008</v>
+      </c>
+      <c r="M81" s="7">
+        <v>937.856508</v>
+      </c>
+      <c r="N81" s="7">
+        <v>-17.27999999999997</v>
+      </c>
+      <c r="O81" s="7">
+        <v>-22.83650799999998</v>
+      </c>
+      <c r="P81" s="7">
+        <v>-17.27999999999997</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="4">
+        <v>69</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="5">
+        <v>4665.802</v>
+      </c>
+      <c r="D82" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E82" s="6">
+        <v>43256</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.3057459360684401</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.2992025808210464</v>
+      </c>
+      <c r="H82" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I82" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1396.02</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1426.55</v>
+      </c>
+      <c r="L82" s="7">
+        <v>8.502238000000034</v>
+      </c>
+      <c r="M82" s="7">
+        <v>1435.052238</v>
+      </c>
+      <c r="N82" s="7">
+        <v>-30.52999999999997</v>
+      </c>
+      <c r="O82" s="7">
+        <v>-39.03223800000001</v>
+      </c>
+      <c r="P82" s="7">
+        <v>-30.52999999999997</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="4">
+        <v>70</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2575.163</v>
+      </c>
+      <c r="D83" s="6">
+        <v>43195</v>
+      </c>
+      <c r="E83" s="6">
+        <v>43235</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.3048544888226493</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.2488813329486328</v>
+      </c>
+      <c r="H83" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I83" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J83" s="7">
+        <v>640.91</v>
+      </c>
+      <c r="K83" s="7">
+        <v>785.05</v>
+      </c>
+      <c r="L83" s="7">
+        <v>3.901698499999952</v>
+      </c>
+      <c r="M83" s="7">
+        <v>788.9516984999999</v>
+      </c>
+      <c r="N83" s="7">
+        <v>-144.14</v>
+      </c>
+      <c r="O83" s="7">
+        <v>-148.0416984999999</v>
+      </c>
+      <c r="P83" s="7">
+        <v>-144.14</v>
+      </c>
+      <c r="Q83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="4">
+        <v>71</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="5">
+        <v>13426.837</v>
+      </c>
+      <c r="D84" s="6">
+        <v>43286</v>
+      </c>
+      <c r="E84" s="6">
+        <v>43235</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.297113907020693</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.2488799111808686</v>
+      </c>
+      <c r="H84" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I84" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J84" s="7">
+        <v>3341.67</v>
+      </c>
+      <c r="K84" s="7">
+        <v>3989.3</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7">
+        <v>3989.3</v>
+      </c>
+      <c r="N84" s="7">
+        <v>-647.6300000000001</v>
+      </c>
+      <c r="O84" s="7">
+        <v>-647.6300000000001</v>
+      </c>
+      <c r="P84" s="7">
+        <v>-647.6300000000001</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="4">
+        <v>72</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="5">
+        <v>9831</v>
+      </c>
+      <c r="D85" s="6">
+        <v>43237</v>
+      </c>
+      <c r="E85" s="6">
+        <v>43423</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.2507130505543689</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.06147390906316753</v>
+      </c>
+      <c r="H85" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I85" s="7">
+        <v>34107130.9152437</v>
+      </c>
+      <c r="J85" s="7">
+        <v>604.35</v>
+      </c>
+      <c r="K85" s="7">
+        <v>2464.76</v>
+      </c>
+      <c r="L85" s="7">
+        <v>7.29568960000006</v>
+      </c>
+      <c r="M85" s="7">
+        <v>2472.0556896</v>
+      </c>
+      <c r="N85" s="7">
+        <v>-1860.41</v>
+      </c>
+      <c r="O85" s="7">
+        <v>-1867.7056896</v>
+      </c>
+      <c r="P85" s="7">
+        <v>-1860.41</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="4">
+        <v>73</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="5">
+        <v>15400</v>
+      </c>
+      <c r="D86" s="6">
+        <v>43208</v>
+      </c>
+      <c r="E86" s="6">
+        <v>43210</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.1516538961038961</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.1781714285714286</v>
+      </c>
+      <c r="H86" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I86" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J86" s="7">
+        <v>2743.84</v>
+      </c>
+      <c r="K86" s="7">
+        <v>2335.47</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>2335.47</v>
+      </c>
+      <c r="N86" s="7">
+        <v>408.3700000000003</v>
+      </c>
+      <c r="O86" s="7">
+        <v>408.3700000000003</v>
+      </c>
+      <c r="P86" s="7">
+        <v>408.3700000000003</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="4">
+        <v>74</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.584</v>
+      </c>
+      <c r="D87" s="6">
+        <v>43208</v>
+      </c>
+      <c r="E87" s="6">
+        <v>43211</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.1541095890410959</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.1883561643835616</v>
+      </c>
+      <c r="H87" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I87" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="4">
+        <v>75</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="5">
+        <v>15690.416</v>
+      </c>
+      <c r="D88" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E88" s="6">
+        <v>43211</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.1791252698462552</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.1856757653844232</v>
+      </c>
+      <c r="H88" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I88" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J88" s="7">
+        <v>2913.33</v>
+      </c>
+      <c r="K88" s="7">
+        <v>2810.55</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>2810.55</v>
+      </c>
+      <c r="N88" s="7">
+        <v>102.7799999999997</v>
+      </c>
+      <c r="O88" s="7">
+        <v>102.7799999999997</v>
+      </c>
+      <c r="P88" s="7">
+        <v>102.7799999999997</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="4">
+        <v>76</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="D89" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E89" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.1824401368301026</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.2508551881413911</v>
+      </c>
+      <c r="H89" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I89" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="4">
+        <v>77</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="5">
+        <v>19849.123</v>
+      </c>
+      <c r="D90" s="6">
+        <v>43212</v>
+      </c>
+      <c r="E90" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.1870677107497394</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.2486225713851438</v>
+      </c>
+      <c r="H90" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I90" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J90" s="7">
+        <v>4934.94</v>
+      </c>
+      <c r="K90" s="7">
+        <v>3713.13</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>3713.13</v>
+      </c>
+      <c r="N90" s="7">
+        <v>1221.809999999999</v>
+      </c>
+      <c r="O90" s="7">
+        <v>1221.809999999999</v>
+      </c>
+      <c r="P90" s="7">
+        <v>1221.809999999999</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="4">
+        <v>78</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.008</v>
+      </c>
+      <c r="D91" s="6">
+        <v>43212</v>
+      </c>
+      <c r="E91" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I91" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="4">
+        <v>79</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="5">
+        <v>21595.383</v>
+      </c>
+      <c r="D92" s="6">
+        <v>43215</v>
+      </c>
+      <c r="E92" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.2509374341728507</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.3028327860635766</v>
+      </c>
+      <c r="H92" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I92" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J92" s="7">
+        <v>6539.79</v>
+      </c>
+      <c r="K92" s="7">
+        <v>5419.089999999999</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>5419.089999999999</v>
+      </c>
+      <c r="N92" s="7">
+        <v>1120.700000000001</v>
+      </c>
+      <c r="O92" s="7">
+        <v>1120.700000000001</v>
+      </c>
+      <c r="P92" s="7">
+        <v>1120.700000000001</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="4">
+        <v>80</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="5">
+        <v>5548.446000000001</v>
+      </c>
+      <c r="D93" s="6">
+        <v>43217</v>
+      </c>
+      <c r="E93" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.2636738286720282</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.3028325408591883</v>
+      </c>
+      <c r="H93" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I93" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J93" s="7">
+        <v>1680.25</v>
+      </c>
+      <c r="K93" s="7">
+        <v>1462.98</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0</v>
+      </c>
+      <c r="M93" s="7">
+        <v>1462.98</v>
+      </c>
+      <c r="N93" s="7">
+        <v>217.27</v>
+      </c>
+      <c r="O93" s="7">
+        <v>217.27</v>
+      </c>
+      <c r="P93" s="7">
+        <v>217.27</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="4">
+        <v>81</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="5">
+        <v>9685.163</v>
+      </c>
+      <c r="D94" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E94" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.3069984470060029</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.2970998010048979</v>
+      </c>
+      <c r="H94" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I94" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J94" s="7">
+        <v>2877.46</v>
+      </c>
+      <c r="K94" s="7">
+        <v>2973.33</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
+        <v>2973.33</v>
+      </c>
+      <c r="N94" s="7">
+        <v>-95.86999999999989</v>
+      </c>
+      <c r="O94" s="7">
+        <v>-95.86999999999989</v>
+      </c>
+      <c r="P94" s="7">
+        <v>-95.86999999999989</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="4">
+        <v>82</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5">
+        <v>4665</v>
+      </c>
+      <c r="D95" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E95" s="6">
+        <v>43220</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.3057384780278671</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.3206730975348339</v>
+      </c>
+      <c r="H95" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I95" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J95" s="7">
+        <v>1495.94</v>
+      </c>
+      <c r="K95" s="7">
+        <v>1426.27</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <v>1426.27</v>
+      </c>
+      <c r="N95" s="7">
+        <v>69.67000000000007</v>
+      </c>
+      <c r="O95" s="7">
+        <v>69.67000000000007</v>
+      </c>
+      <c r="P95" s="7">
+        <v>69.67000000000007</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="4">
+        <v>83</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.722</v>
+      </c>
+      <c r="D96" s="6">
+        <v>43286</v>
+      </c>
+      <c r="E96" s="6">
+        <v>43250</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.3047091412742383</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0.221606648199446</v>
+      </c>
+      <c r="H96" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I96" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="K96" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="N96" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="O96" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="P96" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="4">
+        <v>84</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="5">
+        <v>9829.278</v>
+      </c>
+      <c r="D97" s="6">
+        <v>43237</v>
+      </c>
+      <c r="E97" s="6">
+        <v>43250</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.2506745663313216</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0.2190323643303201</v>
+      </c>
+      <c r="H97" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I97" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J97" s="7">
+        <v>2152.93</v>
+      </c>
+      <c r="K97" s="7">
+        <v>2463.95</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>2463.95</v>
+      </c>
+      <c r="N97" s="7">
+        <v>-311.02</v>
+      </c>
+      <c r="O97" s="7">
+        <v>-311.02</v>
+      </c>
+      <c r="P97" s="7">
+        <v>-311.02</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="4">
+        <v>85</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1338.751042</v>
+      </c>
+      <c r="D98" s="6">
+        <v>43256</v>
+      </c>
+      <c r="E98" s="6">
+        <v>43286</v>
+      </c>
+      <c r="F98" s="5">
+        <v>3.613666655133031</v>
+      </c>
+      <c r="G98" s="5">
+        <v>3.615100827686228</v>
+      </c>
+      <c r="H98" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I98" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J98" s="7">
+        <v>4839.72</v>
+      </c>
+      <c r="K98" s="7">
+        <v>4837.8</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7">
+        <v>4837.8</v>
+      </c>
+      <c r="N98" s="7">
+        <v>1.920000000000073</v>
+      </c>
+      <c r="O98" s="7">
+        <v>1.920000000000073</v>
+      </c>
+      <c r="P98" s="7">
+        <v>1.920000000000073</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="4">
+        <v>86</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.00431313</v>
+      </c>
+      <c r="D99" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E99" s="6">
+        <v>43286</v>
+      </c>
+      <c r="F99" s="5">
+        <v>4.637003753654539</v>
+      </c>
+      <c r="G99" s="5">
+        <v>4.637003753654539</v>
+      </c>
+      <c r="H99" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I99" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K99" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0.0001191999999999999</v>
+      </c>
+      <c r="M99" s="7">
+        <v>0.0201192</v>
+      </c>
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>-0.0001191999999999999</v>
+      </c>
+      <c r="P99" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="4">
+        <v>87</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="5">
+        <v>446.027524</v>
+      </c>
+      <c r="D100" s="6">
+        <v>43256</v>
+      </c>
+      <c r="E100" s="6">
+        <v>43378</v>
+      </c>
+      <c r="F100" s="5">
+        <v>3.613678334344227</v>
+      </c>
+      <c r="G100" s="5">
+        <v>3.58155027222042</v>
+      </c>
+      <c r="H100" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I100" s="7">
+        <v>34207940.1691804</v>
+      </c>
+      <c r="J100" s="7">
+        <v>1597.47</v>
+      </c>
+      <c r="K100" s="7">
+        <v>1611.8</v>
+      </c>
+      <c r="L100" s="7">
+        <v>7.962291999999934</v>
+      </c>
+      <c r="M100" s="7">
+        <v>1619.762292</v>
+      </c>
+      <c r="N100" s="7">
+        <v>-14.32999999999993</v>
+      </c>
+      <c r="O100" s="7">
+        <v>-22.29229199999986</v>
+      </c>
+      <c r="P100" s="7">
+        <v>-14.32999999999993</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="4">
+        <v>88</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.23590187</v>
+      </c>
+      <c r="D101" s="6">
+        <v>43256</v>
+      </c>
+      <c r="E101" s="6">
+        <v>43236</v>
+      </c>
+      <c r="F101" s="5">
+        <v>3.603193141283704</v>
+      </c>
+      <c r="G101" s="5">
+        <v>3.603193141283704</v>
+      </c>
+      <c r="H101" s="7">
+        <v>34039924.7459526</v>
+      </c>
+      <c r="I101" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J101" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K101" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="N101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O101" s="7">
+        <v>0</v>
+      </c>
+      <c r="P101" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R101" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="4">
+        <v>89</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2612.2901321</v>
+      </c>
+      <c r="D102" s="6">
+        <v>43235</v>
+      </c>
+      <c r="E102" s="6">
+        <v>43236</v>
+      </c>
+      <c r="F102" s="5">
+        <v>3.593161373868667</v>
+      </c>
+      <c r="G102" s="5">
+        <v>3.591614838148781</v>
+      </c>
+      <c r="H102" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I102" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J102" s="7">
+        <v>9382.34</v>
+      </c>
+      <c r="K102" s="7">
+        <v>9386.379999999999</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7">
+        <v>9386.379999999999</v>
+      </c>
+      <c r="N102" s="7">
+        <v>-4.039999999999054</v>
+      </c>
+      <c r="O102" s="7">
+        <v>-4.039999999999054</v>
+      </c>
+      <c r="P102" s="7">
+        <v>-4.039999999999054</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="4">
+        <v>90</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1133.193811</v>
+      </c>
+      <c r="D103" s="6">
+        <v>43207</v>
+      </c>
+      <c r="E103" s="6">
+        <v>43207</v>
+      </c>
+      <c r="F103" s="5">
+        <v>3.527543092096892</v>
+      </c>
+      <c r="G103" s="5">
+        <v>3.524013245780073</v>
+      </c>
+      <c r="H103" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I103" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J103" s="7">
+        <v>3993.39</v>
+      </c>
+      <c r="K103" s="7">
+        <v>3997.39</v>
+      </c>
+      <c r="L103" s="7">
+        <v>0</v>
+      </c>
+      <c r="M103" s="7">
+        <v>3997.39</v>
+      </c>
+      <c r="N103" s="7">
+        <v>-4</v>
+      </c>
+      <c r="O103" s="7">
+        <v>-4</v>
+      </c>
+      <c r="P103" s="7">
+        <v>-4</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="4">
+        <v>91</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1569.432895</v>
+      </c>
+      <c r="D104" s="6">
+        <v>43235</v>
+      </c>
+      <c r="E104" s="6">
+        <v>43237</v>
+      </c>
+      <c r="F104" s="5">
+        <v>3.593164140987373</v>
+      </c>
+      <c r="G104" s="5">
+        <v>3.582281229042291</v>
+      </c>
+      <c r="H104" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="I104" s="7">
+        <v>34006321.661307</v>
+      </c>
+      <c r="J104" s="7">
+        <v>5622.15</v>
+      </c>
+      <c r="K104" s="7">
+        <v>5639.23</v>
+      </c>
+      <c r="L104" s="7">
+        <v>0</v>
+      </c>
+      <c r="M104" s="7">
+        <v>5639.23</v>
+      </c>
+      <c r="N104" s="7">
+        <v>-17.08000000000084</v>
+      </c>
+      <c r="O104" s="7">
+        <v>-17.08000000000084</v>
+      </c>
+      <c r="P104" s="7">
+        <v>-17.08000000000084</v>
+      </c>
+      <c r="Q104" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="4">
+        <v>92</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.00087998</v>
+      </c>
+      <c r="D105" s="6">
+        <v>43207</v>
+      </c>
+      <c r="E105" s="6">
+        <v>43210</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I105" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J105" s="7">
+        <v>0</v>
+      </c>
+      <c r="K105" s="7">
+        <v>0</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0</v>
+      </c>
+      <c r="M105" s="7">
+        <v>0</v>
+      </c>
+      <c r="N105" s="7">
+        <v>0</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+      <c r="P105" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R105" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="4">
+        <v>93</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2149.784076999999</v>
+      </c>
+      <c r="D106" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E106" s="6">
+        <v>43210</v>
+      </c>
+      <c r="F106" s="5">
+        <v>3.520200042862259</v>
+      </c>
+      <c r="G106" s="5">
+        <v>3.516678758989618</v>
+      </c>
+      <c r="H106" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I106" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J106" s="7">
+        <v>7560.1</v>
+      </c>
+      <c r="K106" s="7">
+        <v>7567.67</v>
+      </c>
+      <c r="L106" s="7">
+        <v>0</v>
+      </c>
+      <c r="M106" s="7">
+        <v>7567.67</v>
+      </c>
+      <c r="N106" s="7">
+        <v>-7.569999999999709</v>
+      </c>
+      <c r="O106" s="7">
+        <v>-7.569999999999709</v>
+      </c>
+      <c r="P106" s="7">
+        <v>-7.569999999999709</v>
+      </c>
+      <c r="Q106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="4">
+        <v>94</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.00399197</v>
+      </c>
+      <c r="D107" s="6">
+        <v>43210</v>
+      </c>
+      <c r="E107" s="6">
+        <v>43212</v>
+      </c>
+      <c r="F107" s="5">
+        <v>2.505028845407155</v>
+      </c>
+      <c r="G107" s="5">
+        <v>2.505028845407155</v>
+      </c>
+      <c r="H107" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I107" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="K107" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0</v>
+      </c>
+      <c r="M107" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>0</v>
+      </c>
+      <c r="P107" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="4">
+        <v>95</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2125.39551</v>
+      </c>
+      <c r="D108" s="6">
+        <v>43211</v>
+      </c>
+      <c r="E108" s="6">
+        <v>43212</v>
+      </c>
+      <c r="F108" s="5">
+        <v>3.529658345801248</v>
+      </c>
+      <c r="G108" s="5">
+        <v>3.526129590816722</v>
+      </c>
+      <c r="H108" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I108" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J108" s="7">
+        <v>7494.42</v>
+      </c>
+      <c r="K108" s="7">
+        <v>7501.92</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0</v>
+      </c>
+      <c r="M108" s="7">
+        <v>7501.92</v>
+      </c>
+      <c r="N108" s="7">
+        <v>-7.5</v>
+      </c>
+      <c r="O108" s="7">
+        <v>-7.5</v>
+      </c>
+      <c r="P108" s="7">
+        <v>-7.5</v>
+      </c>
+      <c r="Q108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="4">
+        <v>96</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.0006297000000000001</v>
+      </c>
+      <c r="D109" s="6">
+        <v>43211</v>
+      </c>
+      <c r="E109" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I109" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J109" s="7">
+        <v>0</v>
+      </c>
+      <c r="K109" s="7">
+        <v>0</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0</v>
+      </c>
+      <c r="M109" s="7">
+        <v>0</v>
+      </c>
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+      <c r="P109" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="4">
+        <v>97</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2485.7150872</v>
+      </c>
+      <c r="D110" s="6">
+        <v>43215</v>
+      </c>
+      <c r="E110" s="6">
+        <v>43215</v>
+      </c>
+      <c r="F110" s="5">
+        <v>3.565050574634498</v>
+      </c>
+      <c r="G110" s="5">
+        <v>3.561486207967688</v>
+      </c>
+      <c r="H110" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I110" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J110" s="7">
+        <v>8852.84</v>
+      </c>
+      <c r="K110" s="7">
+        <v>8861.700000000001</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0</v>
+      </c>
+      <c r="M110" s="7">
+        <v>8861.700000000001</v>
+      </c>
+      <c r="N110" s="7">
+        <v>-8.860000000000582</v>
+      </c>
+      <c r="O110" s="7">
+        <v>-8.860000000000582</v>
+      </c>
+      <c r="P110" s="7">
+        <v>-8.860000000000582</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="4">
+        <v>98</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.00653027</v>
+      </c>
+      <c r="D111" s="6">
+        <v>43215</v>
+      </c>
+      <c r="E111" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F111" s="5">
+        <v>3.062660502551962</v>
+      </c>
+      <c r="G111" s="5">
+        <v>3.062660502551962</v>
+      </c>
+      <c r="H111" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I111" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J111" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K111" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0</v>
+      </c>
+      <c r="M111" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="N111" s="7">
+        <v>0</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+      <c r="P111" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="4">
+        <v>99</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="5">
+        <v>6438.35781837</v>
+      </c>
+      <c r="D112" s="6">
+        <v>43219</v>
+      </c>
+      <c r="E112" s="6">
+        <v>43219</v>
+      </c>
+      <c r="F112" s="5">
+        <v>3.588001886768145</v>
+      </c>
+      <c r="G112" s="5">
+        <v>3.584412462158338</v>
+      </c>
+      <c r="H112" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I112" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J112" s="7">
+        <v>23077.73</v>
+      </c>
+      <c r="K112" s="7">
+        <v>23100.84</v>
+      </c>
+      <c r="L112" s="7">
+        <v>0</v>
+      </c>
+      <c r="M112" s="7">
+        <v>23100.84</v>
+      </c>
+      <c r="N112" s="7">
+        <v>-23.11000000000058</v>
+      </c>
+      <c r="O112" s="7">
+        <v>-23.11000000000058</v>
+      </c>
+      <c r="P112" s="7">
+        <v>-23.11000000000058</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="4">
+        <v>100</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="5">
+        <v>999</v>
+      </c>
+      <c r="D113" s="6">
+        <v>43126</v>
+      </c>
+      <c r="E113" s="6">
+        <v>43207</v>
+      </c>
+      <c r="F113" s="5">
+        <v>2.084524524524525</v>
+      </c>
+      <c r="G113" s="5">
+        <v>1.033243243243243</v>
+      </c>
+      <c r="H113" s="7">
+        <v>33569481.5609147</v>
+      </c>
+      <c r="I113" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J113" s="7">
+        <v>1032.21</v>
+      </c>
+      <c r="K113" s="7">
+        <v>2082.44</v>
+      </c>
+      <c r="L113" s="7">
+        <v>16.68034440000019</v>
+      </c>
+      <c r="M113" s="7">
+        <v>2099.1203444</v>
+      </c>
+      <c r="N113" s="7">
+        <v>-1050.23</v>
+      </c>
+      <c r="O113" s="7">
+        <v>-1066.9103444</v>
+      </c>
+      <c r="P113" s="7">
+        <v>-1050.23</v>
+      </c>
+      <c r="Q113" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R113" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="4">
+        <v>101</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="5">
+        <v>11155</v>
+      </c>
+      <c r="D114" s="6">
+        <v>43220</v>
+      </c>
+      <c r="E114" s="6">
+        <v>43164</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.243981174361273</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.2854280591662931</v>
+      </c>
+      <c r="H114" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I114" s="7">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J114" s="7">
+        <v>3183.95</v>
+      </c>
+      <c r="K114" s="7">
+        <v>2721.61</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0</v>
+      </c>
+      <c r="M114" s="7">
+        <v>2721.61</v>
+      </c>
+      <c r="N114" s="7">
+        <v>462.3399999999997</v>
+      </c>
+      <c r="O114" s="7">
+        <v>462.3399999999997</v>
+      </c>
+      <c r="P114" s="7">
+        <v>462.3399999999997</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R114" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="4">
+        <v>102</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="5">
+        <v>5494</v>
+      </c>
+      <c r="D115" s="6">
+        <v>43133</v>
+      </c>
+      <c r="E115" s="6">
+        <v>43207</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.1671914816163087</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.3884637786676375</v>
+      </c>
+      <c r="H115" s="7">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="I115" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J115" s="7">
+        <v>2134.22</v>
+      </c>
+      <c r="K115" s="7">
+        <v>918.55</v>
+      </c>
+      <c r="L115" s="7">
+        <v>6.429849999999874</v>
+      </c>
+      <c r="M115" s="7">
+        <v>924.9798499999998</v>
+      </c>
+      <c r="N115" s="7">
+        <v>1215.67</v>
+      </c>
+      <c r="O115" s="7">
+        <v>1209.240150000001</v>
+      </c>
+      <c r="P115" s="7">
+        <v>1209.240150000001</v>
+      </c>
+      <c r="Q115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R115" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="4">
+        <v>103</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="5">
+        <v>1998</v>
+      </c>
+      <c r="D116" s="6">
+        <v>43126</v>
+      </c>
+      <c r="E116" s="6">
+        <v>43207</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.298008008008008</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.3884634634634634</v>
+      </c>
+      <c r="H116" s="7">
+        <v>33569481.5609147</v>
+      </c>
+      <c r="I116" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J116" s="7">
+        <v>776.15</v>
+      </c>
+      <c r="K116" s="7">
+        <v>595.42</v>
+      </c>
+      <c r="L116" s="7">
+        <v>4.769314200000053</v>
+      </c>
+      <c r="M116" s="7">
+        <v>600.1893142</v>
+      </c>
+      <c r="N116" s="7">
+        <v>180.73</v>
+      </c>
+      <c r="O116" s="7">
+        <v>175.9606858</v>
+      </c>
+      <c r="P116" s="7">
+        <v>175.9606858</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R116" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="4">
+        <v>104</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2498</v>
+      </c>
+      <c r="D117" s="6">
+        <v>43133</v>
+      </c>
+      <c r="E117" s="6">
+        <v>43209</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.167658126501201</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.2185708566853483</v>
+      </c>
+      <c r="H117" s="7">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="I117" s="7">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J117" s="7">
+        <v>545.99</v>
+      </c>
+      <c r="K117" s="7">
+        <v>418.81</v>
+      </c>
+      <c r="L117" s="7">
+        <v>2.93166999999994</v>
+      </c>
+      <c r="M117" s="7">
+        <v>421.7416699999999</v>
+      </c>
+      <c r="N117" s="7">
+        <v>127.18</v>
+      </c>
+      <c r="O117" s="7">
+        <v>124.2483300000001</v>
+      </c>
+      <c r="P117" s="7">
+        <v>124.2483300000001</v>
+      </c>
+      <c r="Q117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R117" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
